--- a/Code/Results/Cases/Case_0_85/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_85/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9636577495891399</v>
+        <v>1.034373783061148</v>
       </c>
       <c r="D2">
-        <v>0.9740830798795242</v>
+        <v>1.035181237456496</v>
       </c>
       <c r="E2">
-        <v>0.9825527477505221</v>
+        <v>1.042369620479215</v>
       </c>
       <c r="F2">
-        <v>0.9894798140741139</v>
+        <v>1.050605084691096</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044223648115671</v>
+        <v>1.027244390209967</v>
       </c>
       <c r="J2">
-        <v>0.9869825800462099</v>
+        <v>1.039493379901441</v>
       </c>
       <c r="K2">
-        <v>0.9859156895085597</v>
+        <v>1.037978578778893</v>
       </c>
       <c r="L2">
-        <v>0.994260623588385</v>
+        <v>1.045146501476882</v>
       </c>
       <c r="M2">
-        <v>1.001087683914614</v>
+        <v>1.053358898238454</v>
       </c>
       <c r="N2">
-        <v>0.9980991352246533</v>
+        <v>1.016869558858878</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.972494702750306</v>
+        <v>1.036094151700241</v>
       </c>
       <c r="D3">
-        <v>0.9817386301128544</v>
+        <v>1.036721729538662</v>
       </c>
       <c r="E3">
-        <v>0.9901386181421972</v>
+        <v>1.043891054702674</v>
       </c>
       <c r="F3">
-        <v>0.997486267254213</v>
+        <v>1.052196396358004</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04480035450225</v>
+        <v>1.02724773974027</v>
       </c>
       <c r="J3">
-        <v>0.9937643479435384</v>
+        <v>1.040852956551111</v>
       </c>
       <c r="K3">
-        <v>0.9926106268543747</v>
+        <v>1.039326469015922</v>
       </c>
       <c r="L3">
-        <v>1.000899251830654</v>
+        <v>1.046476892297568</v>
       </c>
       <c r="M3">
-        <v>1.008151413124937</v>
+        <v>1.054760684507516</v>
       </c>
       <c r="N3">
-        <v>1.000544207618748</v>
+        <v>1.017342324362704</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9780158301451748</v>
+        <v>1.037205171184127</v>
       </c>
       <c r="D4">
-        <v>0.9865286334945998</v>
+        <v>1.037716714171726</v>
       </c>
       <c r="E4">
-        <v>0.9948846418284382</v>
+        <v>1.044873497949155</v>
       </c>
       <c r="F4">
-        <v>1.002492732998846</v>
+        <v>1.053223404702984</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045142141183699</v>
+        <v>1.02724730102661</v>
       </c>
       <c r="J4">
-        <v>0.9979991159166689</v>
+        <v>1.041730262863826</v>
       </c>
       <c r="K4">
-        <v>0.9967924120130075</v>
+        <v>1.040196345213594</v>
       </c>
       <c r="L4">
-        <v>1.005045199328114</v>
+        <v>1.047335227672855</v>
       </c>
       <c r="M4">
-        <v>1.012561165745017</v>
+        <v>1.055664579527869</v>
       </c>
       <c r="N4">
-        <v>1.00206840071304</v>
+        <v>1.017646837374818</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9802929100914513</v>
+        <v>1.037671736232499</v>
       </c>
       <c r="D5">
-        <v>0.9885057158155016</v>
+        <v>1.038134581350494</v>
       </c>
       <c r="E5">
-        <v>0.9968434411984894</v>
+        <v>1.045286042140667</v>
       </c>
       <c r="F5">
-        <v>1.004558325711689</v>
+        <v>1.053654528519193</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045278505757157</v>
+        <v>1.0272464924073</v>
       </c>
       <c r="J5">
-        <v>0.9997449937563631</v>
+        <v>1.042098510409098</v>
       </c>
       <c r="K5">
-        <v>0.998516736314055</v>
+        <v>1.040561500496832</v>
       </c>
       <c r="L5">
-        <v>1.006754552190342</v>
+        <v>1.047695478762204</v>
       </c>
       <c r="M5">
-        <v>1.01437881764201</v>
+        <v>1.056043831175544</v>
       </c>
       <c r="N5">
-        <v>1.002696118412155</v>
+        <v>1.017774523296078</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9806727472605469</v>
+        <v>1.037750045168393</v>
       </c>
       <c r="D6">
-        <v>0.9888355975565909</v>
+        <v>1.038204718509363</v>
       </c>
       <c r="E6">
-        <v>0.9971702636466147</v>
+        <v>1.045355282568656</v>
       </c>
       <c r="F6">
-        <v>1.004902923984163</v>
+        <v>1.053726879430596</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045300977731555</v>
+        <v>1.027246320025495</v>
       </c>
       <c r="J6">
-        <v>1.000036179329359</v>
+        <v>1.042160307533878</v>
       </c>
       <c r="K6">
-        <v>0.9988043439499773</v>
+        <v>1.040622780250626</v>
       </c>
       <c r="L6">
-        <v>1.007039650302664</v>
+        <v>1.047755931995285</v>
       </c>
       <c r="M6">
-        <v>1.014681949416361</v>
+        <v>1.056107465730973</v>
       </c>
       <c r="N6">
-        <v>1.002800771756383</v>
+        <v>1.017795942989108</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9780464255675183</v>
+        <v>1.037211407425644</v>
       </c>
       <c r="D7">
-        <v>0.9865551921438076</v>
+        <v>1.037722299386268</v>
       </c>
       <c r="E7">
-        <v>0.9949109554429711</v>
+        <v>1.04487901223697</v>
       </c>
       <c r="F7">
-        <v>1.002520484054628</v>
+        <v>1.053229167863595</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045143991828877</v>
+        <v>1.027247292674673</v>
       </c>
       <c r="J7">
-        <v>0.9980225767609324</v>
+        <v>1.041735185639581</v>
       </c>
       <c r="K7">
-        <v>0.9968155820843384</v>
+        <v>1.040201226547434</v>
       </c>
       <c r="L7">
-        <v>1.005068169038024</v>
+        <v>1.047340043683104</v>
       </c>
       <c r="M7">
-        <v>1.012585592670898</v>
+        <v>1.055669650024498</v>
       </c>
       <c r="N7">
-        <v>1.002076838578785</v>
+        <v>1.017648544817722</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9666870289022024</v>
+        <v>1.03495564766531</v>
       </c>
       <c r="D8">
-        <v>0.9767058088756745</v>
+        <v>1.035702236528639</v>
       </c>
       <c r="E8">
-        <v>0.985151660875052</v>
+        <v>1.042884222038555</v>
       </c>
       <c r="F8">
-        <v>0.992223354974658</v>
+        <v>1.051143436388263</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044425167348909</v>
+        <v>1.027246061642842</v>
       </c>
       <c r="J8">
-        <v>0.9893077696608398</v>
+        <v>1.039953364460021</v>
       </c>
       <c r="K8">
-        <v>0.9882108417581118</v>
+        <v>1.038434586460362</v>
       </c>
       <c r="L8">
-        <v>0.9965365910564857</v>
+        <v>1.04559663997606</v>
       </c>
       <c r="M8">
-        <v>1.003509706572218</v>
+        <v>1.053833297275697</v>
       </c>
       <c r="N8">
-        <v>0.9989379723300355</v>
+        <v>1.017029623614767</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9450001471523847</v>
+        <v>1.030963477652833</v>
       </c>
       <c r="D9">
-        <v>0.9579666309670926</v>
+        <v>1.032128237097186</v>
       </c>
       <c r="E9">
-        <v>0.9665828045657663</v>
+        <v>1.039353167790938</v>
       </c>
       <c r="F9">
-        <v>0.9726118028340718</v>
+        <v>1.047447145097052</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042908416547186</v>
+        <v>1.027223944145199</v>
       </c>
       <c r="J9">
-        <v>0.9726566445339124</v>
+        <v>1.036794506212364</v>
       </c>
       <c r="K9">
-        <v>0.971780587335529</v>
+        <v>1.035303497008871</v>
       </c>
       <c r="L9">
-        <v>0.9802423651986683</v>
+        <v>1.042504845764203</v>
       </c>
       <c r="M9">
-        <v>0.986165434446691</v>
+        <v>1.050572827488023</v>
       </c>
       <c r="N9">
-        <v>0.9929215296632274</v>
+        <v>1.015928149958663</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9291549390599053</v>
+        <v>1.028289626772704</v>
       </c>
       <c r="D10">
-        <v>0.9443319505713244</v>
+        <v>1.029735225813684</v>
       </c>
       <c r="E10">
-        <v>0.9530746329244166</v>
+        <v>1.036987742621495</v>
       </c>
       <c r="F10">
-        <v>0.9583360703247142</v>
+        <v>1.044968198906228</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041713189313384</v>
+        <v>1.027195799766004</v>
       </c>
       <c r="J10">
-        <v>0.9604914648521971</v>
+        <v>1.03467515841463</v>
       </c>
       <c r="K10">
-        <v>0.9597847151087568</v>
+        <v>1.033203358036858</v>
       </c>
       <c r="L10">
-        <v>0.9683461797702164</v>
+        <v>1.04042981581603</v>
       </c>
       <c r="M10">
-        <v>0.9735006566502715</v>
+        <v>1.048382058226413</v>
       </c>
       <c r="N10">
-        <v>0.9885163885795011</v>
+        <v>1.015186325075979</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9218914295010006</v>
+        <v>1.027128694836838</v>
       </c>
       <c r="D11">
-        <v>0.9380986674792164</v>
+        <v>1.028696421841951</v>
       </c>
       <c r="E11">
-        <v>0.9469006883485981</v>
+        <v>1.035960641344245</v>
       </c>
       <c r="F11">
-        <v>0.9518102583301535</v>
+        <v>1.043891141577845</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041147601001322</v>
+        <v>1.027180436690687</v>
       </c>
       <c r="J11">
-        <v>0.9549177332730285</v>
+        <v>1.033754128740645</v>
       </c>
       <c r="K11">
-        <v>0.9542906437384541</v>
+        <v>1.032290813841847</v>
       </c>
       <c r="L11">
-        <v>0.9628986145381419</v>
+        <v>1.039527890814807</v>
       </c>
       <c r="M11">
-        <v>0.9677020150139002</v>
+        <v>1.047429235775854</v>
       </c>
       <c r="N11">
-        <v>0.986496721732162</v>
+        <v>1.014863278283275</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9191253585844831</v>
+        <v>1.026696985907149</v>
       </c>
       <c r="D12">
-        <v>0.9357278104299289</v>
+        <v>1.028310158014451</v>
       </c>
       <c r="E12">
-        <v>0.9445527158399535</v>
+        <v>1.035578688456946</v>
       </c>
       <c r="F12">
-        <v>0.9493284189395765</v>
+        <v>1.043490512241061</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040929845298247</v>
+        <v>1.027174253002702</v>
       </c>
       <c r="J12">
-        <v>0.9527958565406675</v>
+        <v>1.033411503611098</v>
       </c>
       <c r="K12">
-        <v>0.9521994276513968</v>
+        <v>1.031951366061661</v>
       </c>
       <c r="L12">
-        <v>0.9608253032595219</v>
+        <v>1.03919234983258</v>
       </c>
       <c r="M12">
-        <v>0.9654953501205259</v>
+        <v>1.047074671675544</v>
       </c>
       <c r="N12">
-        <v>0.9857277362144852</v>
+        <v>1.01474300498809</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9197219084408624</v>
+        <v>1.02678961123724</v>
       </c>
       <c r="D13">
-        <v>0.9362389895193585</v>
+        <v>1.028393031489414</v>
       </c>
       <c r="E13">
-        <v>0.945058945039732</v>
+        <v>1.035660638840895</v>
       </c>
       <c r="F13">
-        <v>0.9498635106028137</v>
+        <v>1.043576474245993</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040976909887698</v>
+        <v>1.027175601016492</v>
       </c>
       <c r="J13">
-        <v>0.9532534388042736</v>
+        <v>1.033485021307545</v>
       </c>
       <c r="K13">
-        <v>0.952650382490823</v>
+        <v>1.032024201049754</v>
       </c>
       <c r="L13">
-        <v>0.9612723865835373</v>
+        <v>1.039264348496354</v>
       </c>
       <c r="M13">
-        <v>0.9659711752732973</v>
+        <v>1.047150756183597</v>
       </c>
       <c r="N13">
-        <v>0.9858935713356675</v>
+        <v>1.014768816725513</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9216642230243617</v>
+        <v>1.027093019671335</v>
       </c>
       <c r="D14">
-        <v>0.9379038635024384</v>
+        <v>1.028664501507029</v>
       </c>
       <c r="E14">
-        <v>0.9467077577725878</v>
+        <v>1.035929078084054</v>
       </c>
       <c r="F14">
-        <v>0.9516063284003331</v>
+        <v>1.043858036977144</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041129760628999</v>
+        <v>1.02717993527874</v>
       </c>
       <c r="J14">
-        <v>0.9547434254161742</v>
+        <v>1.033725817790865</v>
       </c>
       <c r="K14">
-        <v>0.9541188476861716</v>
+        <v>1.032262765011915</v>
       </c>
       <c r="L14">
-        <v>0.9627282848078645</v>
+        <v>1.039500165687646</v>
       </c>
       <c r="M14">
-        <v>0.9675207236638141</v>
+        <v>1.0473999405903</v>
       </c>
       <c r="N14">
-        <v>0.986433552880376</v>
+        <v>1.014853342177585</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9228516745642316</v>
+        <v>1.027279894596687</v>
       </c>
       <c r="D15">
-        <v>0.9389220886869437</v>
+        <v>1.028831708983127</v>
       </c>
       <c r="E15">
-        <v>0.9477162041692613</v>
+        <v>1.036094413447836</v>
       </c>
       <c r="F15">
-        <v>0.9526722669468992</v>
+        <v>1.044031442173559</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041222905672447</v>
+        <v>1.027182542534014</v>
       </c>
       <c r="J15">
-        <v>0.9556544423410196</v>
+        <v>1.033874112014386</v>
       </c>
       <c r="K15">
-        <v>0.9550167504084544</v>
+        <v>1.032409687086861</v>
       </c>
       <c r="L15">
-        <v>0.963618532416376</v>
+        <v>1.039645390410084</v>
       </c>
       <c r="M15">
-        <v>0.9684682749450112</v>
+        <v>1.047553385716549</v>
       </c>
       <c r="N15">
-        <v>0.9867636997137301</v>
+        <v>1.014905383959404</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.929627895478909</v>
+        <v>1.028366606563533</v>
       </c>
       <c r="D16">
-        <v>0.9447382004100697</v>
+        <v>1.029804111624471</v>
       </c>
       <c r="E16">
-        <v>0.9534770535427649</v>
+        <v>1.03705584669584</v>
       </c>
       <c r="F16">
-        <v>0.9587614128385157</v>
+        <v>1.045039601508059</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041749676345584</v>
+        <v>1.027196752445519</v>
       </c>
       <c r="J16">
-        <v>0.9608544730838531</v>
+        <v>1.034736212753594</v>
       </c>
       <c r="K16">
-        <v>0.9601425798490223</v>
+        <v>1.033263852780625</v>
       </c>
       <c r="L16">
-        <v>0.9687010388315866</v>
+        <v>1.040489600498279</v>
       </c>
       <c r="M16">
-        <v>0.9738784139084505</v>
+        <v>1.048445204328222</v>
       </c>
       <c r="N16">
-        <v>0.9886479055544931</v>
+        <v>1.01520772568337</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9337657268683741</v>
+        <v>1.029047421312242</v>
       </c>
       <c r="D17">
-        <v>0.9482943549358966</v>
+        <v>1.03041336504775</v>
       </c>
       <c r="E17">
-        <v>0.9569998664796457</v>
+        <v>1.037658154752911</v>
       </c>
       <c r="F17">
-        <v>0.962484778757426</v>
+        <v>1.045671005059741</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042066945818074</v>
+        <v>1.027204815589163</v>
       </c>
       <c r="J17">
-        <v>0.9640307284030398</v>
+        <v>1.035276083504908</v>
       </c>
       <c r="K17">
-        <v>0.9632740666994638</v>
+        <v>1.033798791212378</v>
       </c>
       <c r="L17">
-        <v>0.9718063277566586</v>
+        <v>1.041018226536117</v>
       </c>
       <c r="M17">
-        <v>0.9771841924830251</v>
+        <v>1.049003484607651</v>
       </c>
       <c r="N17">
-        <v>0.9897985121411151</v>
+        <v>1.015396883349261</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9361410050835176</v>
+        <v>1.029444227453648</v>
       </c>
       <c r="D18">
-        <v>0.9503372793436501</v>
+        <v>1.030768480906522</v>
       </c>
       <c r="E18">
-        <v>0.959023770984202</v>
+        <v>1.03800919609154</v>
       </c>
       <c r="F18">
-        <v>0.9646237979537303</v>
+        <v>1.0460389400699</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042247402175105</v>
+        <v>1.027209212208461</v>
       </c>
       <c r="J18">
-        <v>0.9658542692110129</v>
+        <v>1.035590659733113</v>
       </c>
       <c r="K18">
-        <v>0.9650720984077508</v>
+        <v>1.03411050668889</v>
       </c>
       <c r="L18">
-        <v>0.9735893911343639</v>
+        <v>1.041326235645381</v>
       </c>
       <c r="M18">
-        <v>0.9790824504686015</v>
+        <v>1.049328715133524</v>
       </c>
       <c r="N18">
-        <v>0.9904589613652407</v>
+        <v>1.015507039362894</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9369446359468707</v>
+        <v>1.029579477416431</v>
       </c>
       <c r="D19">
-        <v>0.9510287184774316</v>
+        <v>1.030889523994547</v>
       </c>
       <c r="E19">
-        <v>0.9597087930515393</v>
+        <v>1.038128845890255</v>
       </c>
       <c r="F19">
-        <v>0.9653477615047052</v>
+        <v>1.046164337080484</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042308165154932</v>
+        <v>1.027210659356121</v>
       </c>
       <c r="J19">
-        <v>0.9664712643734188</v>
+        <v>1.035697867975113</v>
       </c>
       <c r="K19">
-        <v>0.9656804947877928</v>
+        <v>1.034216742226999</v>
       </c>
       <c r="L19">
-        <v>0.9741927332047715</v>
+        <v>1.041431203248162</v>
       </c>
       <c r="M19">
-        <v>0.9797247801723133</v>
+        <v>1.049439542008394</v>
       </c>
       <c r="N19">
-        <v>0.9906823993694632</v>
+        <v>1.015544569911778</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.933325783766509</v>
+        <v>1.028974407641435</v>
       </c>
       <c r="D20">
-        <v>0.9479160932368925</v>
+        <v>1.030348024014211</v>
       </c>
       <c r="E20">
-        <v>0.9566251367353484</v>
+        <v>1.037593561309225</v>
       </c>
       <c r="F20">
-        <v>0.962088726019287</v>
+        <v>1.045603297935776</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042033384795462</v>
+        <v>1.027203982189993</v>
       </c>
       <c r="J20">
-        <v>0.9636929948501006</v>
+        <v>1.035218193798734</v>
       </c>
       <c r="K20">
-        <v>0.9629410731684002</v>
+        <v>1.033741429021437</v>
       </c>
       <c r="L20">
-        <v>0.9714761118470041</v>
+        <v>1.040961544131924</v>
       </c>
       <c r="M20">
-        <v>0.9768326480647288</v>
+        <v>1.0489436283839</v>
       </c>
       <c r="N20">
-        <v>0.9896761805525343</v>
+        <v>1.015376606803091</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9210942072560773</v>
+        <v>1.027003687024635</v>
       </c>
       <c r="D21">
-        <v>0.9374151867445727</v>
+        <v>1.028584571659745</v>
       </c>
       <c r="E21">
-        <v>0.9462237859283701</v>
+        <v>1.035850041713501</v>
       </c>
       <c r="F21">
-        <v>0.9510947639431879</v>
+        <v>1.043775139396246</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041084965679099</v>
+        <v>1.027178672118087</v>
       </c>
       <c r="J21">
-        <v>0.9543061339345139</v>
+        <v>1.033654923507397</v>
       </c>
       <c r="K21">
-        <v>0.953687863095814</v>
+        <v>1.032192527445434</v>
       </c>
       <c r="L21">
-        <v>0.9623009823140101</v>
+        <v>1.039430738012697</v>
       </c>
       <c r="M21">
-        <v>0.9670659267074195</v>
+        <v>1.047326579849229</v>
       </c>
       <c r="N21">
-        <v>0.9862750777386201</v>
+        <v>1.014828459283107</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.913004983120703</v>
+        <v>1.025761790472235</v>
       </c>
       <c r="D22">
-        <v>0.9304876833036431</v>
+        <v>1.027473464910828</v>
       </c>
       <c r="E22">
-        <v>0.9393638620609714</v>
+        <v>1.0347512596363</v>
       </c>
       <c r="F22">
-        <v>0.9438437678001805</v>
+        <v>1.042622443871916</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040443989671717</v>
+        <v>1.027159997994741</v>
       </c>
       <c r="J22">
-        <v>0.9481024959712904</v>
+        <v>1.032669055186728</v>
       </c>
       <c r="K22">
-        <v>0.9475745308235617</v>
+        <v>1.03121584075549</v>
       </c>
       <c r="L22">
-        <v>0.956240473623705</v>
+        <v>1.038465211057193</v>
       </c>
       <c r="M22">
-        <v>0.9606162778701679</v>
+        <v>1.046306148753718</v>
       </c>
       <c r="N22">
-        <v>0.9840267246628202</v>
+        <v>1.014482198963883</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9173339557795944</v>
+        <v>1.02642041656238</v>
       </c>
       <c r="D23">
-        <v>0.9341932237199452</v>
+        <v>1.028062711157996</v>
       </c>
       <c r="E23">
-        <v>0.9430330427450402</v>
+        <v>1.035333991896582</v>
       </c>
       <c r="F23">
-        <v>0.9477221039549503</v>
+        <v>1.043233822879835</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040788189710693</v>
+        <v>1.02717015916808</v>
       </c>
       <c r="J23">
-        <v>0.9514218905808164</v>
+        <v>1.033191969043217</v>
       </c>
       <c r="K23">
-        <v>0.9508454125101936</v>
+        <v>1.031733873200157</v>
       </c>
       <c r="L23">
-        <v>0.9594829487385377</v>
+        <v>1.0389773480094</v>
       </c>
       <c r="M23">
-        <v>0.9640667488959689</v>
+        <v>1.046847455937614</v>
       </c>
       <c r="N23">
-        <v>0.9852297799573392</v>
+        <v>1.014665912892522</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9335246927587704</v>
+        <v>1.029007400308185</v>
       </c>
       <c r="D24">
-        <v>0.9480871097617664</v>
+        <v>1.030377549591341</v>
       </c>
       <c r="E24">
-        <v>0.9567945560118352</v>
+        <v>1.037622749155032</v>
       </c>
       <c r="F24">
-        <v>0.9622677859832258</v>
+        <v>1.045633892958386</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04204856376391</v>
+        <v>1.027204359714317</v>
       </c>
       <c r="J24">
-        <v>0.9638456916723336</v>
+        <v>1.035244352657713</v>
       </c>
       <c r="K24">
-        <v>0.963091626322093</v>
+        <v>1.033767349468977</v>
       </c>
       <c r="L24">
-        <v>0.9716254089568797</v>
+        <v>1.040987157488687</v>
       </c>
       <c r="M24">
-        <v>0.9769915879953012</v>
+        <v>1.04897067608615</v>
       </c>
       <c r="N24">
-        <v>0.9897314897946445</v>
+        <v>1.015385769446757</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.950829489321347</v>
+        <v>1.03199767518978</v>
       </c>
       <c r="D25">
-        <v>0.9629950290150074</v>
+        <v>1.033053975494417</v>
       </c>
       <c r="E25">
-        <v>0.9715653187892241</v>
+        <v>1.040267989603467</v>
       </c>
       <c r="F25">
-        <v>0.977875946335376</v>
+        <v>1.048405276625597</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04333166845422</v>
+        <v>1.027232024627227</v>
       </c>
       <c r="J25">
-        <v>0.9771330309973968</v>
+        <v>1.0376134697751</v>
       </c>
       <c r="K25">
-        <v>0.9761963135554143</v>
+        <v>1.036115159833956</v>
       </c>
       <c r="L25">
-        <v>0.9846216905197329</v>
+        <v>1.043306543153712</v>
       </c>
       <c r="M25">
-        <v>0.9908277018760084</v>
+        <v>1.051418711013375</v>
       </c>
       <c r="N25">
-        <v>0.9945408335787318</v>
+        <v>1.016214215250059</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_85/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_85/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034373783061148</v>
+        <v>0.9636577495891391</v>
       </c>
       <c r="D2">
-        <v>1.035181237456496</v>
+        <v>0.9740830798795236</v>
       </c>
       <c r="E2">
-        <v>1.042369620479215</v>
+        <v>0.9825527477505216</v>
       </c>
       <c r="F2">
-        <v>1.050605084691096</v>
+        <v>0.9894798140741136</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027244390209967</v>
+        <v>1.044223648115671</v>
       </c>
       <c r="J2">
-        <v>1.039493379901441</v>
+        <v>0.9869825800462091</v>
       </c>
       <c r="K2">
-        <v>1.037978578778893</v>
+        <v>0.9859156895085592</v>
       </c>
       <c r="L2">
-        <v>1.045146501476882</v>
+        <v>0.9942606235883845</v>
       </c>
       <c r="M2">
-        <v>1.053358898238454</v>
+        <v>1.001087683914613</v>
       </c>
       <c r="N2">
-        <v>1.016869558858878</v>
+        <v>0.998099135224653</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036094151700241</v>
+        <v>0.9724947027503069</v>
       </c>
       <c r="D3">
-        <v>1.036721729538662</v>
+        <v>0.9817386301128557</v>
       </c>
       <c r="E3">
-        <v>1.043891054702674</v>
+        <v>0.9901386181421978</v>
       </c>
       <c r="F3">
-        <v>1.052196396358004</v>
+        <v>0.9974862672542141</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.02724773974027</v>
+        <v>1.04480035450225</v>
       </c>
       <c r="J3">
-        <v>1.040852956551111</v>
+        <v>0.9937643479435395</v>
       </c>
       <c r="K3">
-        <v>1.039326469015922</v>
+        <v>0.9926106268543758</v>
       </c>
       <c r="L3">
-        <v>1.046476892297568</v>
+        <v>1.000899251830655</v>
       </c>
       <c r="M3">
-        <v>1.054760684507516</v>
+        <v>1.008151413124939</v>
       </c>
       <c r="N3">
-        <v>1.017342324362704</v>
+        <v>1.000544207618748</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037205171184127</v>
+        <v>0.978015830145173</v>
       </c>
       <c r="D4">
-        <v>1.037716714171726</v>
+        <v>0.9865286334945983</v>
       </c>
       <c r="E4">
-        <v>1.044873497949155</v>
+        <v>0.9948846418284367</v>
       </c>
       <c r="F4">
-        <v>1.053223404702984</v>
+        <v>1.002492732998845</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.02724730102661</v>
+        <v>1.045142141183699</v>
       </c>
       <c r="J4">
-        <v>1.041730262863826</v>
+        <v>0.9979991159166673</v>
       </c>
       <c r="K4">
-        <v>1.040196345213594</v>
+        <v>0.9967924120130059</v>
       </c>
       <c r="L4">
-        <v>1.047335227672855</v>
+        <v>1.005045199328112</v>
       </c>
       <c r="M4">
-        <v>1.055664579527869</v>
+        <v>1.012561165745016</v>
       </c>
       <c r="N4">
-        <v>1.017646837374818</v>
+        <v>1.002068400713039</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037671736232499</v>
+        <v>0.9802929100914513</v>
       </c>
       <c r="D5">
-        <v>1.038134581350494</v>
+        <v>0.9885057158155015</v>
       </c>
       <c r="E5">
-        <v>1.045286042140667</v>
+        <v>0.9968434411984892</v>
       </c>
       <c r="F5">
-        <v>1.053654528519193</v>
+        <v>1.004558325711689</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0272464924073</v>
+        <v>1.045278505757157</v>
       </c>
       <c r="J5">
-        <v>1.042098510409098</v>
+        <v>0.9997449937563629</v>
       </c>
       <c r="K5">
-        <v>1.040561500496832</v>
+        <v>0.998516736314055</v>
       </c>
       <c r="L5">
-        <v>1.047695478762204</v>
+        <v>1.006754552190342</v>
       </c>
       <c r="M5">
-        <v>1.056043831175544</v>
+        <v>1.01437881764201</v>
       </c>
       <c r="N5">
-        <v>1.017774523296078</v>
+        <v>1.002696118412155</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037750045168393</v>
+        <v>0.9806727472605467</v>
       </c>
       <c r="D6">
-        <v>1.038204718509363</v>
+        <v>0.9888355975565907</v>
       </c>
       <c r="E6">
-        <v>1.045355282568656</v>
+        <v>0.9971702636466143</v>
       </c>
       <c r="F6">
-        <v>1.053726879430596</v>
+        <v>1.004902923984163</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027246320025495</v>
+        <v>1.045300977731555</v>
       </c>
       <c r="J6">
-        <v>1.042160307533878</v>
+        <v>1.000036179329359</v>
       </c>
       <c r="K6">
-        <v>1.040622780250626</v>
+        <v>0.9988043439499771</v>
       </c>
       <c r="L6">
-        <v>1.047755931995285</v>
+        <v>1.007039650302663</v>
       </c>
       <c r="M6">
-        <v>1.056107465730973</v>
+        <v>1.014681949416361</v>
       </c>
       <c r="N6">
-        <v>1.017795942989108</v>
+        <v>1.002800771756383</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037211407425644</v>
+        <v>0.9780464255675188</v>
       </c>
       <c r="D7">
-        <v>1.037722299386268</v>
+        <v>0.9865551921438083</v>
       </c>
       <c r="E7">
-        <v>1.04487901223697</v>
+        <v>0.9949109554429716</v>
       </c>
       <c r="F7">
-        <v>1.053229167863595</v>
+        <v>1.002520484054628</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027247292674673</v>
+        <v>1.045143991828877</v>
       </c>
       <c r="J7">
-        <v>1.041735185639581</v>
+        <v>0.9980225767609329</v>
       </c>
       <c r="K7">
-        <v>1.040201226547434</v>
+        <v>0.9968155820843388</v>
       </c>
       <c r="L7">
-        <v>1.047340043683104</v>
+        <v>1.005068169038025</v>
       </c>
       <c r="M7">
-        <v>1.055669650024498</v>
+        <v>1.012585592670898</v>
       </c>
       <c r="N7">
-        <v>1.017648544817722</v>
+        <v>1.002076838578785</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03495564766531</v>
+        <v>0.9666870289022018</v>
       </c>
       <c r="D8">
-        <v>1.035702236528639</v>
+        <v>0.976705808875674</v>
       </c>
       <c r="E8">
-        <v>1.042884222038555</v>
+        <v>0.9851516608750516</v>
       </c>
       <c r="F8">
-        <v>1.051143436388263</v>
+        <v>0.9922233549746579</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027246061642842</v>
+        <v>1.044425167348909</v>
       </c>
       <c r="J8">
-        <v>1.039953364460021</v>
+        <v>0.9893077696608392</v>
       </c>
       <c r="K8">
-        <v>1.038434586460362</v>
+        <v>0.9882108417581114</v>
       </c>
       <c r="L8">
-        <v>1.04559663997606</v>
+        <v>0.9965365910564852</v>
       </c>
       <c r="M8">
-        <v>1.053833297275697</v>
+        <v>1.003509706572218</v>
       </c>
       <c r="N8">
-        <v>1.017029623614767</v>
+        <v>0.9989379723300352</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030963477652833</v>
+        <v>0.9450001471523836</v>
       </c>
       <c r="D9">
-        <v>1.032128237097186</v>
+        <v>0.9579666309670914</v>
       </c>
       <c r="E9">
-        <v>1.039353167790938</v>
+        <v>0.9665828045657653</v>
       </c>
       <c r="F9">
-        <v>1.047447145097052</v>
+        <v>0.9726118028340706</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027223944145199</v>
+        <v>1.042908416547186</v>
       </c>
       <c r="J9">
-        <v>1.036794506212364</v>
+        <v>0.9726566445339114</v>
       </c>
       <c r="K9">
-        <v>1.035303497008871</v>
+        <v>0.9717805873355282</v>
       </c>
       <c r="L9">
-        <v>1.042504845764203</v>
+        <v>0.9802423651986674</v>
       </c>
       <c r="M9">
-        <v>1.050572827488023</v>
+        <v>0.9861654344466901</v>
       </c>
       <c r="N9">
-        <v>1.015928149958663</v>
+        <v>0.9929215296632271</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028289626772704</v>
+        <v>0.9291549390599055</v>
       </c>
       <c r="D10">
-        <v>1.029735225813684</v>
+        <v>0.9443319505713246</v>
       </c>
       <c r="E10">
-        <v>1.036987742621495</v>
+        <v>0.9530746329244166</v>
       </c>
       <c r="F10">
-        <v>1.044968198906228</v>
+        <v>0.958336070324714</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027195799766004</v>
+        <v>1.041713189313384</v>
       </c>
       <c r="J10">
-        <v>1.03467515841463</v>
+        <v>0.9604914648521974</v>
       </c>
       <c r="K10">
-        <v>1.033203358036858</v>
+        <v>0.9597847151087573</v>
       </c>
       <c r="L10">
-        <v>1.04042981581603</v>
+        <v>0.9683461797702164</v>
       </c>
       <c r="M10">
-        <v>1.048382058226413</v>
+        <v>0.9735006566502714</v>
       </c>
       <c r="N10">
-        <v>1.015186325075979</v>
+        <v>0.9885163885795012</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027128694836838</v>
+        <v>0.9218914295009989</v>
       </c>
       <c r="D11">
-        <v>1.028696421841951</v>
+        <v>0.9380986674792147</v>
       </c>
       <c r="E11">
-        <v>1.035960641344245</v>
+        <v>0.9469006883485961</v>
       </c>
       <c r="F11">
-        <v>1.043891141577845</v>
+        <v>0.9518102583301519</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027180436690687</v>
+        <v>1.041147601001322</v>
       </c>
       <c r="J11">
-        <v>1.033754128740645</v>
+        <v>0.954917733273027</v>
       </c>
       <c r="K11">
-        <v>1.032290813841847</v>
+        <v>0.9542906437384524</v>
       </c>
       <c r="L11">
-        <v>1.039527890814807</v>
+        <v>0.96289861453814</v>
       </c>
       <c r="M11">
-        <v>1.047429235775854</v>
+        <v>0.9677020150138985</v>
       </c>
       <c r="N11">
-        <v>1.014863278283275</v>
+        <v>0.9864967217321616</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026696985907149</v>
+        <v>0.9191253585844829</v>
       </c>
       <c r="D12">
-        <v>1.028310158014451</v>
+        <v>0.9357278104299287</v>
       </c>
       <c r="E12">
-        <v>1.035578688456946</v>
+        <v>0.9445527158399531</v>
       </c>
       <c r="F12">
-        <v>1.043490512241061</v>
+        <v>0.9493284189395763</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027174253002702</v>
+        <v>1.040929845298247</v>
       </c>
       <c r="J12">
-        <v>1.033411503611098</v>
+        <v>0.9527958565406672</v>
       </c>
       <c r="K12">
-        <v>1.031951366061661</v>
+        <v>0.9521994276513964</v>
       </c>
       <c r="L12">
-        <v>1.03919234983258</v>
+        <v>0.9608253032595215</v>
       </c>
       <c r="M12">
-        <v>1.047074671675544</v>
+        <v>0.9654953501205255</v>
       </c>
       <c r="N12">
-        <v>1.01474300498809</v>
+        <v>0.9857277362144851</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02678961123724</v>
+        <v>0.9197219084408617</v>
       </c>
       <c r="D13">
-        <v>1.028393031489414</v>
+        <v>0.936238989519358</v>
       </c>
       <c r="E13">
-        <v>1.035660638840895</v>
+        <v>0.9450589450397313</v>
       </c>
       <c r="F13">
-        <v>1.043576474245993</v>
+        <v>0.9498635106028126</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027175601016492</v>
+        <v>1.040976909887698</v>
       </c>
       <c r="J13">
-        <v>1.033485021307545</v>
+        <v>0.9532534388042728</v>
       </c>
       <c r="K13">
-        <v>1.032024201049754</v>
+        <v>0.9526503824908225</v>
       </c>
       <c r="L13">
-        <v>1.039264348496354</v>
+        <v>0.9612723865835364</v>
       </c>
       <c r="M13">
-        <v>1.047150756183597</v>
+        <v>0.9659711752732963</v>
       </c>
       <c r="N13">
-        <v>1.014768816725513</v>
+        <v>0.9858935713356671</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027093019671335</v>
+        <v>0.921664223024361</v>
       </c>
       <c r="D14">
-        <v>1.028664501507029</v>
+        <v>0.9379038635024377</v>
       </c>
       <c r="E14">
-        <v>1.035929078084054</v>
+        <v>0.9467077577725871</v>
       </c>
       <c r="F14">
-        <v>1.043858036977144</v>
+        <v>0.9516063284003323</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02717993527874</v>
+        <v>1.041129760628999</v>
       </c>
       <c r="J14">
-        <v>1.033725817790865</v>
+        <v>0.9547434254161733</v>
       </c>
       <c r="K14">
-        <v>1.032262765011915</v>
+        <v>0.9541188476861708</v>
       </c>
       <c r="L14">
-        <v>1.039500165687646</v>
+        <v>0.9627282848078639</v>
       </c>
       <c r="M14">
-        <v>1.0473999405903</v>
+        <v>0.9675207236638134</v>
       </c>
       <c r="N14">
-        <v>1.014853342177585</v>
+        <v>0.9864335528803758</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027279894596687</v>
+        <v>0.9228516745642326</v>
       </c>
       <c r="D15">
-        <v>1.028831708983127</v>
+        <v>0.9389220886869443</v>
       </c>
       <c r="E15">
-        <v>1.036094413447836</v>
+        <v>0.9477162041692619</v>
       </c>
       <c r="F15">
-        <v>1.044031442173559</v>
+        <v>0.9526722669468997</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027182542534014</v>
+        <v>1.041222905672447</v>
       </c>
       <c r="J15">
-        <v>1.033874112014386</v>
+        <v>0.9556544423410201</v>
       </c>
       <c r="K15">
-        <v>1.032409687086861</v>
+        <v>0.9550167504084549</v>
       </c>
       <c r="L15">
-        <v>1.039645390410084</v>
+        <v>0.9636185324163765</v>
       </c>
       <c r="M15">
-        <v>1.047553385716549</v>
+        <v>0.9684682749450118</v>
       </c>
       <c r="N15">
-        <v>1.014905383959404</v>
+        <v>0.9867636997137303</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028366606563533</v>
+        <v>0.9296278954789096</v>
       </c>
       <c r="D16">
-        <v>1.029804111624471</v>
+        <v>0.9447382004100705</v>
       </c>
       <c r="E16">
-        <v>1.03705584669584</v>
+        <v>0.9534770535427654</v>
       </c>
       <c r="F16">
-        <v>1.045039601508059</v>
+        <v>0.9587614128385158</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027196752445519</v>
+        <v>1.041749676345584</v>
       </c>
       <c r="J16">
-        <v>1.034736212753594</v>
+        <v>0.9608544730838534</v>
       </c>
       <c r="K16">
-        <v>1.033263852780625</v>
+        <v>0.960142579849023</v>
       </c>
       <c r="L16">
-        <v>1.040489600498279</v>
+        <v>0.9687010388315871</v>
       </c>
       <c r="M16">
-        <v>1.048445204328222</v>
+        <v>0.9738784139084508</v>
       </c>
       <c r="N16">
-        <v>1.01520772568337</v>
+        <v>0.9886479055544932</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029047421312242</v>
+        <v>0.9337657268683736</v>
       </c>
       <c r="D17">
-        <v>1.03041336504775</v>
+        <v>0.9482943549358963</v>
       </c>
       <c r="E17">
-        <v>1.037658154752911</v>
+        <v>0.9569998664796451</v>
       </c>
       <c r="F17">
-        <v>1.045671005059741</v>
+        <v>0.9624847787574251</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027204815589163</v>
+        <v>1.042066945818074</v>
       </c>
       <c r="J17">
-        <v>1.035276083504908</v>
+        <v>0.9640307284030391</v>
       </c>
       <c r="K17">
-        <v>1.033798791212378</v>
+        <v>0.9632740666994634</v>
       </c>
       <c r="L17">
-        <v>1.041018226536117</v>
+        <v>0.971806327756658</v>
       </c>
       <c r="M17">
-        <v>1.049003484607651</v>
+        <v>0.9771841924830245</v>
       </c>
       <c r="N17">
-        <v>1.015396883349261</v>
+        <v>0.989798512141115</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029444227453648</v>
+        <v>0.9361410050835168</v>
       </c>
       <c r="D18">
-        <v>1.030768480906522</v>
+        <v>0.9503372793436495</v>
       </c>
       <c r="E18">
-        <v>1.03800919609154</v>
+        <v>0.9590237709842016</v>
       </c>
       <c r="F18">
-        <v>1.0460389400699</v>
+        <v>0.9646237979537299</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027209212208461</v>
+        <v>1.042247402175104</v>
       </c>
       <c r="J18">
-        <v>1.035590659733113</v>
+        <v>0.9658542692110123</v>
       </c>
       <c r="K18">
-        <v>1.03411050668889</v>
+        <v>0.96507209840775</v>
       </c>
       <c r="L18">
-        <v>1.041326235645381</v>
+        <v>0.9735893911343633</v>
       </c>
       <c r="M18">
-        <v>1.049328715133524</v>
+        <v>0.979082450468601</v>
       </c>
       <c r="N18">
-        <v>1.015507039362894</v>
+        <v>0.9904589613652406</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029579477416431</v>
+        <v>0.9369446359468688</v>
       </c>
       <c r="D19">
-        <v>1.030889523994547</v>
+        <v>0.9510287184774296</v>
       </c>
       <c r="E19">
-        <v>1.038128845890255</v>
+        <v>0.9597087930515377</v>
       </c>
       <c r="F19">
-        <v>1.046164337080484</v>
+        <v>0.9653477615047038</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027210659356121</v>
+        <v>1.042308165154932</v>
       </c>
       <c r="J19">
-        <v>1.035697867975113</v>
+        <v>0.9664712643734171</v>
       </c>
       <c r="K19">
-        <v>1.034216742226999</v>
+        <v>0.9656804947877908</v>
       </c>
       <c r="L19">
-        <v>1.041431203248162</v>
+        <v>0.97419273320477</v>
       </c>
       <c r="M19">
-        <v>1.049439542008394</v>
+        <v>0.9797247801723118</v>
       </c>
       <c r="N19">
-        <v>1.015544569911778</v>
+        <v>0.9906823993694626</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028974407641435</v>
+        <v>0.9333257837665084</v>
       </c>
       <c r="D20">
-        <v>1.030348024014211</v>
+        <v>0.9479160932368921</v>
       </c>
       <c r="E20">
-        <v>1.037593561309225</v>
+        <v>0.956625136735348</v>
       </c>
       <c r="F20">
-        <v>1.045603297935776</v>
+        <v>0.9620887260192866</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027203982189993</v>
+        <v>1.042033384795461</v>
       </c>
       <c r="J20">
-        <v>1.035218193798734</v>
+        <v>0.9636929948501002</v>
       </c>
       <c r="K20">
-        <v>1.033741429021437</v>
+        <v>0.9629410731683995</v>
       </c>
       <c r="L20">
-        <v>1.040961544131924</v>
+        <v>0.9714761118470036</v>
       </c>
       <c r="M20">
-        <v>1.0489436283839</v>
+        <v>0.9768326480647284</v>
       </c>
       <c r="N20">
-        <v>1.015376606803091</v>
+        <v>0.989676180552534</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027003687024635</v>
+        <v>0.9210942072560768</v>
       </c>
       <c r="D21">
-        <v>1.028584571659745</v>
+        <v>0.9374151867445725</v>
       </c>
       <c r="E21">
-        <v>1.035850041713501</v>
+        <v>0.9462237859283695</v>
       </c>
       <c r="F21">
-        <v>1.043775139396246</v>
+        <v>0.951094763943187</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027178672118087</v>
+        <v>1.041084965679099</v>
       </c>
       <c r="J21">
-        <v>1.033654923507397</v>
+        <v>0.9543061339345135</v>
       </c>
       <c r="K21">
-        <v>1.032192527445434</v>
+        <v>0.9536878630958138</v>
       </c>
       <c r="L21">
-        <v>1.039430738012697</v>
+        <v>0.9623009823140095</v>
       </c>
       <c r="M21">
-        <v>1.047326579849229</v>
+        <v>0.9670659267074189</v>
       </c>
       <c r="N21">
-        <v>1.014828459283107</v>
+        <v>0.9862750777386199</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025761790472235</v>
+        <v>0.913004983120705</v>
       </c>
       <c r="D22">
-        <v>1.027473464910828</v>
+        <v>0.9304876833036453</v>
       </c>
       <c r="E22">
-        <v>1.0347512596363</v>
+        <v>0.9393638620609732</v>
       </c>
       <c r="F22">
-        <v>1.042622443871916</v>
+        <v>0.9438437678001821</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027159997994741</v>
+        <v>1.040443989671717</v>
       </c>
       <c r="J22">
-        <v>1.032669055186728</v>
+        <v>0.9481024959712921</v>
       </c>
       <c r="K22">
-        <v>1.03121584075549</v>
+        <v>0.9475745308235637</v>
       </c>
       <c r="L22">
-        <v>1.038465211057193</v>
+        <v>0.9562404736237067</v>
       </c>
       <c r="M22">
-        <v>1.046306148753718</v>
+        <v>0.9606162778701693</v>
       </c>
       <c r="N22">
-        <v>1.014482198963883</v>
+        <v>0.9840267246628207</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02642041656238</v>
+        <v>0.9173339557795939</v>
       </c>
       <c r="D23">
-        <v>1.028062711157996</v>
+        <v>0.9341932237199447</v>
       </c>
       <c r="E23">
-        <v>1.035333991896582</v>
+        <v>0.9430330427450396</v>
       </c>
       <c r="F23">
-        <v>1.043233822879835</v>
+        <v>0.9477221039549496</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02717015916808</v>
+        <v>1.040788189710693</v>
       </c>
       <c r="J23">
-        <v>1.033191969043217</v>
+        <v>0.9514218905808159</v>
       </c>
       <c r="K23">
-        <v>1.031733873200157</v>
+        <v>0.9508454125101932</v>
       </c>
       <c r="L23">
-        <v>1.0389773480094</v>
+        <v>0.9594829487385371</v>
       </c>
       <c r="M23">
-        <v>1.046847455937614</v>
+        <v>0.9640667488959682</v>
       </c>
       <c r="N23">
-        <v>1.014665912892522</v>
+        <v>0.9852297799573391</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029007400308185</v>
+        <v>0.9335246927587703</v>
       </c>
       <c r="D24">
-        <v>1.030377549591341</v>
+        <v>0.9480871097617659</v>
       </c>
       <c r="E24">
-        <v>1.037622749155032</v>
+        <v>0.9567945560118347</v>
       </c>
       <c r="F24">
-        <v>1.045633892958386</v>
+        <v>0.9622677859832258</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027204359714317</v>
+        <v>1.04204856376391</v>
       </c>
       <c r="J24">
-        <v>1.035244352657713</v>
+        <v>0.9638456916723332</v>
       </c>
       <c r="K24">
-        <v>1.033767349468977</v>
+        <v>0.9630916263220928</v>
       </c>
       <c r="L24">
-        <v>1.040987157488687</v>
+        <v>0.9716254089568793</v>
       </c>
       <c r="M24">
-        <v>1.04897067608615</v>
+        <v>0.9769915879953009</v>
       </c>
       <c r="N24">
-        <v>1.015385769446757</v>
+        <v>0.9897314897946444</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03199767518978</v>
+        <v>0.9508294893213468</v>
       </c>
       <c r="D25">
-        <v>1.033053975494417</v>
+        <v>0.9629950290150076</v>
       </c>
       <c r="E25">
-        <v>1.040267989603467</v>
+        <v>0.9715653187892238</v>
       </c>
       <c r="F25">
-        <v>1.048405276625597</v>
+        <v>0.9778759463353756</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027232024627227</v>
+        <v>1.04333166845422</v>
       </c>
       <c r="J25">
-        <v>1.0376134697751</v>
+        <v>0.9771330309973969</v>
       </c>
       <c r="K25">
-        <v>1.036115159833956</v>
+        <v>0.9761963135554144</v>
       </c>
       <c r="L25">
-        <v>1.043306543153712</v>
+        <v>0.9846216905197327</v>
       </c>
       <c r="M25">
-        <v>1.051418711013375</v>
+        <v>0.9908277018760081</v>
       </c>
       <c r="N25">
-        <v>1.016214215250059</v>
+        <v>0.994540833578732</v>
       </c>
     </row>
   </sheetData>
